--- a/modules/korean_history.xlsx
+++ b/modules/korean_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hoon/WebstormProjects/AllTimeline/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351C36A7-E56A-F246-A467-C09973F8DA78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE5C044-8415-ED44-AD51-298CD8C9B216}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1629,12 +1629,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/3/33/Reliefkarte_Nordkorea.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/en/7/7e/International_Monetary_Fund_logo.svg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/en/0/0d/OECD_logo_new.svg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/ko/6/67/1988%EB%85%84_%EC%84%9C%EC%9A%B8_%EC%98%AC%EB%A6%BC%ED%94%BD_%EA%B0%9C%EB%A7%89%EC%8B%9D_%ED%96%89%EC%82%AC.jpg</t>
   </si>
   <si>
@@ -1745,6 +1739,12 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/4/4d/Gyeongbokgung_Palace.png</t>
+  </si>
+  <si>
+    <t>https://www.imf.org/external/15/images/header/imf_seal.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/0/0d/OECD_logo_new.svg/200px-OECD_logo_new.png</t>
   </si>
 </sst>
 </file>
@@ -2286,8 +2286,8 @@
   <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3490,7 +3490,7 @@
         <v>162</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F50" s="14">
         <v>-1</v>
@@ -4450,7 +4450,7 @@
         <v>296</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F90" s="3">
         <v>-1</v>
@@ -4474,7 +4474,7 @@
         <v>299</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F91" s="3">
         <v>-1</v>
@@ -4498,7 +4498,7 @@
         <v>302</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F92" s="3">
         <v>-1</v>
@@ -4546,7 +4546,7 @@
         <v>308</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F94" s="3">
         <v>-1</v>
@@ -4594,7 +4594,7 @@
         <v>314</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F96" s="3">
         <v>1895</v>
@@ -4618,7 +4618,7 @@
         <v>317</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F97" s="3">
         <v>1895</v>
@@ -4642,7 +4642,7 @@
         <v>320</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F98" s="3">
         <v>-1</v>
@@ -4714,7 +4714,7 @@
         <v>329</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F101" s="3">
         <v>-1</v>
@@ -4738,7 +4738,7 @@
         <v>332</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F102" s="3">
         <v>-1</v>
@@ -4762,7 +4762,7 @@
         <v>335</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F103" s="3">
         <v>1910</v>
@@ -4810,7 +4810,7 @@
         <v>341</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F105" s="3">
         <v>-1</v>
@@ -4834,7 +4834,7 @@
         <v>344</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F106" s="3">
         <v>-1</v>
@@ -4858,7 +4858,7 @@
         <v>347</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F107" s="3">
         <v>-1</v>
@@ -4882,7 +4882,7 @@
         <v>350</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F108" s="3">
         <v>1948</v>
@@ -4954,7 +4954,7 @@
         <v>359</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F111" s="3">
         <v>-1</v>
@@ -5002,7 +5002,7 @@
         <v>365</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F113" s="3">
         <v>-1</v>
@@ -5026,7 +5026,7 @@
         <v>368</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F114" s="3">
         <v>-1</v>
@@ -5050,7 +5050,7 @@
         <v>371</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F115" s="3">
         <v>1948</v>
@@ -5122,7 +5122,7 @@
         <v>381</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F118" s="3">
         <v>-1</v>
@@ -5146,7 +5146,7 @@
         <v>384</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F119" s="3">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>387</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F120" s="3">
         <v>-1</v>
@@ -5194,7 +5194,7 @@
         <v>390</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F121" s="3">
         <v>-1</v>
@@ -5218,7 +5218,7 @@
         <v>393</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F122" s="3">
         <v>-1</v>
@@ -5242,7 +5242,7 @@
         <v>396</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F123" s="3">
         <v>-1</v>
@@ -5266,7 +5266,7 @@
         <v>399</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F124" s="3">
         <v>-1</v>
@@ -5314,7 +5314,7 @@
         <v>405</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F126" s="3">
         <v>-1</v>
@@ -5338,7 +5338,7 @@
         <v>408</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F127" s="1">
         <v>-1</v>
@@ -5386,7 +5386,7 @@
         <v>414</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F129" s="3">
         <v>-1</v>
@@ -5410,7 +5410,7 @@
         <v>417</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F130" s="3">
         <v>1953</v>
@@ -5434,7 +5434,7 @@
         <v>420</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F131" s="3">
         <v>-1</v>
@@ -5458,7 +5458,7 @@
         <v>423</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F132" s="3">
         <v>1961</v>
@@ -5482,7 +5482,7 @@
         <v>426</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F133" s="3">
         <v>-1</v>
@@ -5506,7 +5506,7 @@
         <v>429</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F134" s="3">
         <v>1972</v>
@@ -5554,7 +5554,7 @@
         <v>436</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F136" s="3">
         <v>-1</v>
@@ -5578,7 +5578,7 @@
         <v>439</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F137" s="3">
         <v>1993</v>
@@ -5627,7 +5627,7 @@
         <v>445</v>
       </c>
       <c r="E139" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F139" s="3">
         <v>1993</v>
@@ -5651,7 +5651,7 @@
         <v>448</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F140" s="3">
         <v>-1</v>
@@ -5675,7 +5675,7 @@
         <v>451</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F141" s="3">
         <v>1988</v>
@@ -5747,7 +5747,7 @@
         <v>460</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="F144" s="3">
         <v>-1</v>
@@ -5771,7 +5771,7 @@
         <v>463</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="F145" s="1">
         <v>-1</v>
@@ -5779,7 +5779,6 @@
       <c r="G145" s="3">
         <v>1</v>
       </c>
-      <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A146" s="8">
@@ -7319,47 +7318,45 @@
     <hyperlink ref="E148" r:id="rId233" xr:uid="{510207A0-62D2-F64E-939F-683B1A49CF8D}"/>
     <hyperlink ref="E147" r:id="rId234" xr:uid="{A41CDC76-9383-3542-9C02-BA4DD7AC421F}"/>
     <hyperlink ref="E146" r:id="rId235" xr:uid="{FE0B6B8E-B252-8341-928F-4C3CFBBF4F68}"/>
-    <hyperlink ref="E145" r:id="rId236" xr:uid="{84331673-33AE-4948-A179-6D6DFBF0384D}"/>
-    <hyperlink ref="E144" r:id="rId237" xr:uid="{AE6F7D51-37CB-A847-B42E-9A6E31AC9160}"/>
-    <hyperlink ref="E141" r:id="rId238" xr:uid="{ADDC95E0-9BA8-8D45-BB0C-275AF133206C}"/>
-    <hyperlink ref="E140" r:id="rId239" xr:uid="{2FDA6C85-EBE4-244F-A679-75AD9758EDDB}"/>
-    <hyperlink ref="E139" r:id="rId240" xr:uid="{05C2E251-9580-684C-AEA3-9CDBDDF4C292}"/>
-    <hyperlink ref="E137" r:id="rId241" xr:uid="{3FE421D9-277B-404A-9381-9FB518A551A4}"/>
-    <hyperlink ref="E136" r:id="rId242" xr:uid="{B767AA6A-A2AB-8F40-B5B4-A8CBD819F24D}"/>
-    <hyperlink ref="E134" r:id="rId243" xr:uid="{323E7FA0-80B0-0843-9B59-355ED6531961}"/>
-    <hyperlink ref="E133" r:id="rId244" xr:uid="{9BC56819-0047-2942-AEA8-B28E1FB31E74}"/>
-    <hyperlink ref="E132" r:id="rId245" xr:uid="{BB429D5C-4BF3-1C49-86ED-3F2AA7D52100}"/>
-    <hyperlink ref="E131" r:id="rId246" xr:uid="{84F294DD-0EE5-F049-A804-2B69F113C937}"/>
-    <hyperlink ref="E130" r:id="rId247" xr:uid="{E7252670-642A-BE4C-B633-59A34A147218}"/>
-    <hyperlink ref="E129" r:id="rId248" xr:uid="{0F6D860A-A9A2-D745-8CC3-6AB4D155455F}"/>
-    <hyperlink ref="E127" r:id="rId249" xr:uid="{94230441-7DB9-5E48-8E65-E35B357D2636}"/>
-    <hyperlink ref="E126" r:id="rId250" xr:uid="{76CEAB92-C62D-6444-8F80-CCFB4D9CAFBE}"/>
-    <hyperlink ref="E124" r:id="rId251" xr:uid="{B4C21166-FEA8-F744-8C2D-2B39793B3BDE}"/>
-    <hyperlink ref="E123" r:id="rId252" xr:uid="{929260BD-1A0D-A44B-A2A6-BF27A8647980}"/>
-    <hyperlink ref="E122" r:id="rId253" xr:uid="{B4304CCB-D800-5A47-ACD9-30A5D9022BF2}"/>
-    <hyperlink ref="E121" r:id="rId254" xr:uid="{E7153A30-5518-F948-9736-A6C8C0BCA2E0}"/>
-    <hyperlink ref="E120" r:id="rId255" xr:uid="{2CF95FB0-044B-F048-9A6C-6AD9563007ED}"/>
-    <hyperlink ref="E119" r:id="rId256" xr:uid="{443B04B5-53B4-6F4A-9476-2048F61F2947}"/>
-    <hyperlink ref="E118" r:id="rId257" xr:uid="{E7B00085-2400-364E-B497-EAF68AA289BC}"/>
-    <hyperlink ref="E117" r:id="rId258" xr:uid="{D1D1CBFA-E9D2-EA46-A626-F5EF00784319}"/>
-    <hyperlink ref="E115" r:id="rId259" xr:uid="{5749955F-5DA2-2D4D-8FCB-DB0B7584482A}"/>
-    <hyperlink ref="E114" r:id="rId260" xr:uid="{365BB79E-464B-5947-94BD-060A0DE49325}"/>
-    <hyperlink ref="E113" r:id="rId261" xr:uid="{E87AE25C-B6C3-AE40-B224-7A53791C33FA}"/>
-    <hyperlink ref="E111" r:id="rId262" xr:uid="{E4FECA67-BFA3-4348-AEB1-73695868DBA2}"/>
-    <hyperlink ref="E108" r:id="rId263" xr:uid="{BC6506A7-5E78-5F47-900D-EFE47D2EDE8F}"/>
-    <hyperlink ref="E107" r:id="rId264" xr:uid="{D1351365-CF85-C747-AFEA-A9EFF76CC077}"/>
-    <hyperlink ref="E106" r:id="rId265" xr:uid="{5C023234-3B65-A441-AAC7-C9CD0D8AB1D7}"/>
-    <hyperlink ref="E105" r:id="rId266" xr:uid="{F434C330-E907-7D44-9853-C62454506003}"/>
-    <hyperlink ref="E103" r:id="rId267" xr:uid="{0A67C794-7F71-9845-A429-6C454855C7E0}"/>
-    <hyperlink ref="E102" r:id="rId268" xr:uid="{54AF1929-BF5E-814E-A50E-24D58BCF6AF5}"/>
-    <hyperlink ref="E101" r:id="rId269" xr:uid="{4AED042D-4304-2B4E-94BE-5C8BD271FC8E}"/>
-    <hyperlink ref="E98" r:id="rId270" xr:uid="{C94D76CE-150D-2D43-99E8-8416A3D88467}"/>
-    <hyperlink ref="E97" r:id="rId271" xr:uid="{61C4F5B4-C2BB-114D-9FA0-AEEECF3EDDF5}"/>
-    <hyperlink ref="E94" r:id="rId272" xr:uid="{EA6DBA9A-FBAB-DC49-B252-8A6728511D46}"/>
-    <hyperlink ref="E92" r:id="rId273" xr:uid="{448166D4-054D-0440-B137-0CA933450073}"/>
-    <hyperlink ref="E91" r:id="rId274" xr:uid="{7265FB78-D429-554D-9134-FBA64AED6089}"/>
-    <hyperlink ref="E90" r:id="rId275" xr:uid="{9E75D1EA-F069-0940-8EBB-B2D16C69012B}"/>
-    <hyperlink ref="E50" r:id="rId276" xr:uid="{E603BA8C-F99F-F14F-BA6A-DA1DD703E2BE}"/>
+    <hyperlink ref="E141" r:id="rId236" xr:uid="{ADDC95E0-9BA8-8D45-BB0C-275AF133206C}"/>
+    <hyperlink ref="E140" r:id="rId237" xr:uid="{2FDA6C85-EBE4-244F-A679-75AD9758EDDB}"/>
+    <hyperlink ref="E139" r:id="rId238" xr:uid="{05C2E251-9580-684C-AEA3-9CDBDDF4C292}"/>
+    <hyperlink ref="E137" r:id="rId239" xr:uid="{3FE421D9-277B-404A-9381-9FB518A551A4}"/>
+    <hyperlink ref="E136" r:id="rId240" xr:uid="{B767AA6A-A2AB-8F40-B5B4-A8CBD819F24D}"/>
+    <hyperlink ref="E134" r:id="rId241" xr:uid="{323E7FA0-80B0-0843-9B59-355ED6531961}"/>
+    <hyperlink ref="E133" r:id="rId242" xr:uid="{9BC56819-0047-2942-AEA8-B28E1FB31E74}"/>
+    <hyperlink ref="E132" r:id="rId243" xr:uid="{BB429D5C-4BF3-1C49-86ED-3F2AA7D52100}"/>
+    <hyperlink ref="E131" r:id="rId244" xr:uid="{84F294DD-0EE5-F049-A804-2B69F113C937}"/>
+    <hyperlink ref="E130" r:id="rId245" xr:uid="{E7252670-642A-BE4C-B633-59A34A147218}"/>
+    <hyperlink ref="E129" r:id="rId246" xr:uid="{0F6D860A-A9A2-D745-8CC3-6AB4D155455F}"/>
+    <hyperlink ref="E127" r:id="rId247" xr:uid="{94230441-7DB9-5E48-8E65-E35B357D2636}"/>
+    <hyperlink ref="E126" r:id="rId248" xr:uid="{76CEAB92-C62D-6444-8F80-CCFB4D9CAFBE}"/>
+    <hyperlink ref="E124" r:id="rId249" xr:uid="{B4C21166-FEA8-F744-8C2D-2B39793B3BDE}"/>
+    <hyperlink ref="E123" r:id="rId250" xr:uid="{929260BD-1A0D-A44B-A2A6-BF27A8647980}"/>
+    <hyperlink ref="E122" r:id="rId251" xr:uid="{B4304CCB-D800-5A47-ACD9-30A5D9022BF2}"/>
+    <hyperlink ref="E121" r:id="rId252" xr:uid="{E7153A30-5518-F948-9736-A6C8C0BCA2E0}"/>
+    <hyperlink ref="E120" r:id="rId253" xr:uid="{2CF95FB0-044B-F048-9A6C-6AD9563007ED}"/>
+    <hyperlink ref="E119" r:id="rId254" xr:uid="{443B04B5-53B4-6F4A-9476-2048F61F2947}"/>
+    <hyperlink ref="E118" r:id="rId255" xr:uid="{E7B00085-2400-364E-B497-EAF68AA289BC}"/>
+    <hyperlink ref="E117" r:id="rId256" xr:uid="{D1D1CBFA-E9D2-EA46-A626-F5EF00784319}"/>
+    <hyperlink ref="E115" r:id="rId257" xr:uid="{5749955F-5DA2-2D4D-8FCB-DB0B7584482A}"/>
+    <hyperlink ref="E114" r:id="rId258" xr:uid="{365BB79E-464B-5947-94BD-060A0DE49325}"/>
+    <hyperlink ref="E113" r:id="rId259" xr:uid="{E87AE25C-B6C3-AE40-B224-7A53791C33FA}"/>
+    <hyperlink ref="E111" r:id="rId260" xr:uid="{E4FECA67-BFA3-4348-AEB1-73695868DBA2}"/>
+    <hyperlink ref="E108" r:id="rId261" xr:uid="{BC6506A7-5E78-5F47-900D-EFE47D2EDE8F}"/>
+    <hyperlink ref="E107" r:id="rId262" xr:uid="{D1351365-CF85-C747-AFEA-A9EFF76CC077}"/>
+    <hyperlink ref="E106" r:id="rId263" xr:uid="{5C023234-3B65-A441-AAC7-C9CD0D8AB1D7}"/>
+    <hyperlink ref="E105" r:id="rId264" xr:uid="{F434C330-E907-7D44-9853-C62454506003}"/>
+    <hyperlink ref="E103" r:id="rId265" xr:uid="{0A67C794-7F71-9845-A429-6C454855C7E0}"/>
+    <hyperlink ref="E102" r:id="rId266" xr:uid="{54AF1929-BF5E-814E-A50E-24D58BCF6AF5}"/>
+    <hyperlink ref="E101" r:id="rId267" xr:uid="{4AED042D-4304-2B4E-94BE-5C8BD271FC8E}"/>
+    <hyperlink ref="E98" r:id="rId268" xr:uid="{C94D76CE-150D-2D43-99E8-8416A3D88467}"/>
+    <hyperlink ref="E97" r:id="rId269" xr:uid="{61C4F5B4-C2BB-114D-9FA0-AEEECF3EDDF5}"/>
+    <hyperlink ref="E94" r:id="rId270" xr:uid="{EA6DBA9A-FBAB-DC49-B252-8A6728511D46}"/>
+    <hyperlink ref="E92" r:id="rId271" xr:uid="{448166D4-054D-0440-B137-0CA933450073}"/>
+    <hyperlink ref="E91" r:id="rId272" xr:uid="{7265FB78-D429-554D-9134-FBA64AED6089}"/>
+    <hyperlink ref="E90" r:id="rId273" xr:uid="{9E75D1EA-F069-0940-8EBB-B2D16C69012B}"/>
+    <hyperlink ref="E50" r:id="rId274" xr:uid="{E603BA8C-F99F-F14F-BA6A-DA1DD703E2BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
